--- a/mybot/project/controllers/logo.xlsx
+++ b/mybot/project/controllers/logo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="2" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G7:G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,10 +1043,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,32 +1054,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1087,10 +1087,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1109,10 +1109,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1120,21 +1120,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
